--- a/Secretarias/SEDARPA/SEDARPA_AGRONEGOCIO_OK.xlsx
+++ b/Secretarias/SEDARPA/SEDARPA_AGRONEGOCIO_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\SEDARPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SEDARPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93036E-B0C5-4FC3-9100-29D514505576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADBA9E2-0787-4B14-9279-922DD91AB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
@@ -26,12 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -367,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="642">
   <si>
     <t>30049</t>
   </si>
@@ -1928,30 +1922,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Venta de Café Orgánico, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta de lixiviado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta de Café Orgánico, naranja, </t>
-  </si>
-  <si>
-    <t>Venta de artesanias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta de pipian, zacate limón, ajonjolí, caña de azúcar, chile seco,  </t>
-  </si>
-  <si>
-    <t>Venta de pan, elote, chanacate, flor, cilantro, hierbabuena, palmilla, dulce tradicional, yuca, bioles, calabaza, platano</t>
-  </si>
-  <si>
-    <t>Venta de Productos Artesanales, miel,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta de  Aguacates, Tamales     </t>
-  </si>
-  <si>
     <t>ANIO</t>
   </si>
   <si>
@@ -1982,36 +1952,6 @@
     <t xml:space="preserve">Jornada De Consumo Solidario </t>
   </si>
   <si>
-    <t xml:space="preserve">JORNADA DE CONSUMO SOLIDARIO </t>
-  </si>
-  <si>
-    <t>DULCES ARTESANALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANTAS HORNAMENTELES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTESANIAS </t>
-  </si>
-  <si>
-    <t>JOYERÍA ARTESANAL</t>
-  </si>
-  <si>
-    <t>ARTESANIAS</t>
-  </si>
-  <si>
-    <t>JAMAICA, MOLE</t>
-  </si>
-  <si>
-    <t>SALSAS ARTESANALES</t>
-  </si>
-  <si>
-    <t>CAFÉ, VINOS ARTESANALES</t>
-  </si>
-  <si>
-    <t>HORTALIZAS</t>
-  </si>
-  <si>
     <t>Alamo Emapache</t>
   </si>
   <si>
@@ -2024,15 +1964,6 @@
     <t>Papantla (Cumbre Tajin )</t>
   </si>
   <si>
-    <t>Xalapa ( SEDARPA)</t>
-  </si>
-  <si>
-    <t>Xalapa (SIOP)</t>
-  </si>
-  <si>
-    <t>Veracruz (WTC)</t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53452724532_f424e4a599_b.jpg</t>
   </si>
   <si>
@@ -2057,157 +1988,321 @@
     <t>https://live.staticflickr.com/65535/53453797308_130c46d4cb_b.jpg</t>
   </si>
   <si>
-    <t>VENTA DE CAFÉ, TOMATE, PEPINO, MIEL.</t>
-  </si>
-  <si>
-    <t>VENTA DE HOJA DE PLATANO,CHAYOTE, PLANTAS ORNAMENTALES, CAÑA DE AZUCAR.</t>
-  </si>
-  <si>
-    <t>VENTA DE NARANJA, CALABAZA, PLATANO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE MANDARINA, LIMÓN, TEXTILES, BORDADOS, ELOTES </t>
-  </si>
-  <si>
-    <t>VENTA DE FLOR DE NOCHE BUENA</t>
-  </si>
-  <si>
-    <t>VENTA DE SUCULENTAS, ROSAS</t>
-  </si>
-  <si>
-    <t>VENTA DE FLOR DE NOCHE BUENA, SUCULENTAS, MIEL, CAFÉ, DULCES, ARTESANIAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE ARTESANIAS, DERIVADOS DE LA MIEL, VELAS, DULCES, PLANTAS MEDICINALES </t>
-  </si>
-  <si>
-    <t>ALTOTONGA</t>
-  </si>
-  <si>
-    <t>JUCHIQUE DE FERRER</t>
-  </si>
-  <si>
-    <t>XALAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XALAPA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE FLORICULTURA, ARTESANIAS, MIEL Y DERIVADOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE CAFÉ, VINOS Y LICORES ARTESANALES </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53628040573_e119765318_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53627841656_ec04b23e06_h.jpg</t>
   </si>
   <si>
-    <t>COATEPEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE CAFÉ, MIEL Y DERIVADOS, DULCES ARTESANALES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE VINOS Y LICORES ARTESANALES, CANELA, SALSAS </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53628266140_fb63e8556b_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53626929752_c6d23d5452_h.jpg</t>
   </si>
   <si>
-    <t>PAPANTLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE JUGO DE CAÑA, PILONCILLO GRANULADO </t>
-  </si>
-  <si>
-    <t>VENTA DE VAINILLA Y EXTRACTOS, MALANGA, MACADAMIA , ARTESANIAS</t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53628290460_4adc9af8b8_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53628290450_e3969b3118_h.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">COATEPEC </t>
-  </si>
-  <si>
-    <t>COMERCIALIZACIÓN Y VENTA DE CAFÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE PLANTAS , LICORES ARTESANALES </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53835297120_38ef8152d4_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53835201624_d2df4e02f8_h.jpg</t>
   </si>
   <si>
-    <t>ACTOPAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUEZ DE MACADAMIA, CACAHUATES GARAPIÑADOS, PISTACHES </t>
-  </si>
-  <si>
-    <t>VENTA DE TORITOS DE CACAHUATE, ARTESANIAS Y CAFÉ MOLIDO</t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53835322310_672c7104bc_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53833983217_fd24852c81_h.jpg</t>
   </si>
   <si>
-    <t>XALAPA I</t>
-  </si>
-  <si>
-    <t>VENTA DE ARTESANIAS Y CAFÉ MOLIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE TAMALES DE MAIZ, MIEL DE ABEJA </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53833993172_5199e95d48_h.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53835140963_b778b9946a_h.jpg</t>
   </si>
   <si>
-    <t>XALAPA II</t>
-  </si>
-  <si>
-    <t>VENTA DE PLANTAS ORNAMENTALES, MIEL DE ABEJA, CAFÉ, ARTESANIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE MIEL DE ABEJA Y PLATAS </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53835148273_493a17464f_b.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53835243399_d1b0e7b543_b.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">JUCHIQUE DE FERRER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEBIDAS ARTESANALES, CAFÉ, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE MALANGA, MIEL Y DERIVADOS </t>
-  </si>
-  <si>
     <t>https://live.staticflickr.com/65535/53834910231_502d466007_b.jpg</t>
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53835254434_4b9ed7a99e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040984295_7cd160b77b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040984290_e2d0604787_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040864584_38bc67c622_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040788253_159088f091_h.jpg[/img</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040796018_9c8160779b_h.jpg[/img</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54039681637_12c389bab4_h.jpg[/img</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040877484_fbbdaa8f6b_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040551046_964d05489c_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040805328_10c714522a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040805323_52cc882c7c_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040557546_37b32fb577_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040808108_f9715abe2b_h.jpg</t>
+  </si>
+  <si>
+    <t>Alto Lucero De Gutiérrez Barrios</t>
+  </si>
+  <si>
+    <t>Cosautlán De Carvajal</t>
+  </si>
+  <si>
+    <t>Ixhuatlán Del Café</t>
+  </si>
+  <si>
+    <t>Xalapa ( Sedarpa)</t>
+  </si>
+  <si>
+    <t>Xalapa (Siop)</t>
+  </si>
+  <si>
+    <t>Veracruz (Wtc)</t>
+  </si>
+  <si>
+    <t>Juchique De Ferrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xalapa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatepec </t>
+  </si>
+  <si>
+    <t>Xalapa I</t>
+  </si>
+  <si>
+    <t>Xalapa Ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juchique De Ferrer </t>
+  </si>
+  <si>
+    <t>Jornadas De Fomento Al Consumo Del Café Veracruzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Productos: Miel, Vainilla,Salsas, Aceite A Las Finas Hierbas, Pimienta,Canela, Plantas Frutales Y De Hornato, Frutas De Temporada Y Area Gastronomica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitacion A Través De Foros, Conferencias Y Talleres; Promocion Para Venta Inmediata De Sus Porductos A Través De La Expoferia; Ventas Directas Y Captación De Clientes Permanentes A Corto, Mediano Y Lrgo Plazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expo-Comercial 4 Foros Y 40 Ponentes
+1,699 Encuentros De Negocios
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Productos: Miel, Vainilla,Salsas, Aceite A Las Finas Hierbas, Pimienta,Canela, Plantas Frutales Y De Hornato, Frutas De Temporada Y Area Gastronomica , 3.7 Mdp De Derrama Economica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subastas Internacional Y Nacional
+Venta De 6.4 Toneladas De Café Verde
+Subastas Internacional Y Nacional
+Venta De 6.4 Toneladas De Café Verde
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Café Orgánico, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Café Orgánico, Naranja, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Pipian, Zacate Limón, Ajonjolí, Caña De Azúcar, Chile Seco,  </t>
+  </si>
+  <si>
+    <t>Venta De Productos Artesanales, Miel,</t>
+  </si>
+  <si>
+    <t>Dulces Artesanales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artesanias </t>
+  </si>
+  <si>
+    <t>Joyería Artesanal</t>
+  </si>
+  <si>
+    <t>Jamaica, Mole</t>
+  </si>
+  <si>
+    <t>Café, Vinos Artesanales</t>
+  </si>
+  <si>
+    <t>Hortalizas</t>
+  </si>
+  <si>
+    <t>Venta De Café, Tomate, Pepino, Miel.</t>
+  </si>
+  <si>
+    <t>Venta De Naranja, Calabaza, Platano.</t>
+  </si>
+  <si>
+    <t>Venta De Flor De Noche Buena</t>
+  </si>
+  <si>
+    <t>Venta De Flor De Noche Buena, Suculentas, Miel, Café, Dulces, Artesanias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Floricultura, Artesanias, Miel Y Derivados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Café, Miel Y Derivados, Dulces Artesanales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Jugo De Caña, Piloncillo Granulado </t>
+  </si>
+  <si>
+    <t>Comercialización Y Venta De Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuez De Macadamia, Cacahuates Garapiñados, Pistaches </t>
+  </si>
+  <si>
+    <t>Venta De Artesanias Y Café Molido</t>
+  </si>
+  <si>
+    <t>Venta De Plantas Ornamentales, Miel De Abeja, Café, Artesanias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebidas Artesanales, Café, </t>
+  </si>
+  <si>
+    <t>Venta De Café Y Miel De Abeja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Plantas Y Hortalizas </t>
+  </si>
+  <si>
+    <t>Venta De Platano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Aguacate </t>
+  </si>
+  <si>
+    <t>Venta De Café</t>
+  </si>
+  <si>
+    <t>3.7 Mdp De Derrama Económica</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Subastas Internacional Y Nacional
+Venta De 6.4 Toneladas De Café Verde
+2.4 Mdp De Derrama Económica</t>
+  </si>
+  <si>
+    <t>2.4 Mdp De Derrama Económica</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Lixiviado  </t>
+  </si>
+  <si>
+    <t>Venta De Artesanias</t>
+  </si>
+  <si>
+    <t>Venta De Pan, Elote, Chanacate, Flor, Cilantro, Hierbabuena, Palmilla, Dulce Tradicional, Yuca, Bioles, Calabaza, Platano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De  Aguacates, Tamales     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantas Hornamenteles </t>
+  </si>
+  <si>
+    <t>Artesanias</t>
+  </si>
+  <si>
+    <t>Salsas Artesanales</t>
+  </si>
+  <si>
+    <t>Venta De Hoja De Platano,Chayote, Plantas Ornamentales, Caña De Azucar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Mandarina, Limón, Textiles, Bordados, Elotes </t>
+  </si>
+  <si>
+    <t>Venta De Suculentas, Rosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Artesanias, Derivados De La Miel, Velas, Dulces, Plantas Medicinales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Café, Vinos Y Licores Artesanales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Vinos Y Licores Artesanales, Canela, Salsas </t>
+  </si>
+  <si>
+    <t>Venta De Vainilla Y Extractos, Malanga, Macadamia , Artesanias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Plantas , Licores Artesanales </t>
+  </si>
+  <si>
+    <t>Venta De Toritos De Cacahuate, Artesanias Y Café Molido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Tamales De Maiz, Miel De Abeja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Miel De Abeja Y Platas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Malanga, Miel Y Derivados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Nuez De Macadamia </t>
+  </si>
+  <si>
+    <t>Venta De Maiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Chayote </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Tortilla De Maiz </t>
+  </si>
+  <si>
+    <t>Venta De Miel Y Guanabana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta De Café Y Licores Artesanales </t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2597,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2704,9 +2799,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2750,10 +2842,10 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3080,20 +3172,20 @@
       <selection pane="bottomLeft" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
-    <col min="9" max="10" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="10" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>91</v>
       </c>
@@ -3125,7 +3217,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -3157,7 +3249,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
@@ -3189,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -3221,7 +3313,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -3253,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -3285,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -3317,7 +3409,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -3349,7 +3441,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>207</v>
       </c>
@@ -3381,7 +3473,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -3413,7 +3505,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -3445,7 +3537,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>225</v>
       </c>
@@ -3477,7 +3569,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>235</v>
       </c>
@@ -3509,7 +3601,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -3541,7 +3633,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -3573,7 +3665,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -3605,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3637,7 +3729,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3669,7 +3761,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3701,7 +3793,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>365</v>
       </c>
@@ -3733,7 +3825,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>397</v>
       </c>
@@ -3763,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>403</v>
       </c>
@@ -3795,7 +3887,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -3827,7 +3919,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>415</v>
       </c>
@@ -3859,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30026</v>
       </c>
@@ -3891,7 +3983,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
@@ -3904,7 +3996,7 @@
       <c r="I26" s="43"/>
       <c r="J26" s="44"/>
     </row>
-    <row r="27" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
@@ -3918,7 +4010,7 @@
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
     </row>
-    <row r="28" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
@@ -3929,7 +4021,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
@@ -3939,7 +4031,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
@@ -3949,7 +4041,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="C31"/>
       <c r="D31" s="47"/>
@@ -3959,7 +4051,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="C32"/>
       <c r="D32" s="47"/>
@@ -3969,7 +4061,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
@@ -3979,7 +4071,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
@@ -3989,7 +4081,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
@@ -3999,7 +4091,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="C36"/>
       <c r="D36" s="47"/>
@@ -4009,7 +4101,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="C37"/>
       <c r="D37" s="47"/>
@@ -4019,7 +4111,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="C38"/>
       <c r="D38" s="8"/>
@@ -4029,7 +4121,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
@@ -4039,7 +4131,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="C40"/>
       <c r="D40" s="8"/>
@@ -4049,7 +4141,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="49"/>
     </row>
-    <row r="41" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="C41"/>
       <c r="D41" s="8"/>
@@ -4059,7 +4151,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="C42"/>
       <c r="D42" s="8"/>
@@ -4069,7 +4161,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="C43"/>
       <c r="D43" s="8"/>
@@ -4079,7 +4171,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="C44"/>
       <c r="D44" s="8"/>
@@ -4089,7 +4181,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="C45"/>
       <c r="D45" s="8"/>
@@ -4099,7 +4191,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="C46"/>
       <c r="D46" s="47"/>
@@ -4109,7 +4201,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="C47"/>
       <c r="D47" s="47"/>
@@ -4119,7 +4211,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="C48"/>
       <c r="D48" s="47"/>
@@ -4129,7 +4221,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="50"/>
     </row>
-    <row r="49" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="C49"/>
       <c r="D49" s="47"/>
@@ -4139,7 +4231,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="C50"/>
       <c r="D50" s="8"/>
@@ -4149,7 +4241,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="C51"/>
       <c r="D51" s="8"/>
@@ -4159,7 +4251,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="C52"/>
       <c r="D52" s="38"/>
@@ -4169,798 +4261,798 @@
       <c r="I52" s="53"/>
       <c r="J52" s="50"/>
     </row>
-    <row r="53" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="C101"/>
     </row>
-    <row r="102" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="C105"/>
     </row>
-    <row r="106" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="C113"/>
     </row>
-    <row r="114" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="C117"/>
     </row>
-    <row r="118" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="C119"/>
     </row>
-    <row r="120" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="C121"/>
     </row>
-    <row r="122" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="C127"/>
     </row>
-    <row r="128" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="C149"/>
     </row>
-    <row r="150" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="C151"/>
     </row>
-    <row r="152" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="C153"/>
     </row>
-    <row r="154" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="C157"/>
     </row>
-    <row r="158" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="C185"/>
     </row>
-    <row r="186" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="C187"/>
     </row>
-    <row r="188" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="C189"/>
     </row>
-    <row r="190" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="C191"/>
     </row>
-    <row r="192" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="C197"/>
     </row>
-    <row r="198" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="C209"/>
     </row>
-    <row r="210" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="C211"/>
     </row>
-    <row r="212" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="C213"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="37"/>
       <c r="C214" s="22"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B215" s="36"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B216" s="36"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B217" s="36"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B218" s="36"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B219" s="36"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B220" s="36"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B221" s="36"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B222" s="36"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B223" s="36"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B224" s="36"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="36"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="36"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="36"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="36"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="36"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="36"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="36"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="36"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="36"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="36"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="36"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="36"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="36"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="36"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="36"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="36"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="36"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="36"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="36"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="36"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="36"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="36"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="36"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="36"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="36"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="36"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="36"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="36"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="36"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="36"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="36"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="36"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="36"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="36"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="36"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="36"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J213" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="A2:J261">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J261">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
@@ -5020,12 +5112,12 @@
       <selection activeCell="J26" sqref="A3:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="64"/>
+    <col min="1" max="16384" width="11.44140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>91</v>
       </c>
@@ -5057,7 +5149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>247</v>
       </c>
@@ -5089,7 +5181,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>117</v>
       </c>
@@ -5121,7 +5213,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>14</v>
       </c>
@@ -5153,7 +5245,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>159</v>
       </c>
@@ -5185,7 +5277,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>175</v>
       </c>
@@ -5217,7 +5309,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>179</v>
       </c>
@@ -5249,7 +5341,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>207</v>
       </c>
@@ -5281,7 +5373,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>225</v>
       </c>
@@ -5313,7 +5405,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>44</v>
       </c>
@@ -5345,7 +5437,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
         <v>365</v>
       </c>
@@ -5377,7 +5469,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>403</v>
       </c>
@@ -5409,7 +5501,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>86</v>
       </c>
@@ -5441,7 +5533,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
         <v>115</v>
       </c>
@@ -5473,7 +5565,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="66" t="s">
         <v>397</v>
       </c>
@@ -5505,7 +5597,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5629,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>97</v>
       </c>
@@ -5569,7 +5661,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="66">
         <v>30026</v>
       </c>
@@ -5599,7 +5691,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
         <v>213</v>
       </c>
@@ -5631,7 +5723,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
         <v>221</v>
       </c>
@@ -5661,7 +5753,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>245</v>
       </c>
@@ -5693,7 +5785,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>247</v>
       </c>
@@ -5725,7 +5817,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="66" t="s">
         <v>167</v>
       </c>
@@ -5757,7 +5849,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
         <v>257</v>
       </c>
@@ -5789,7 +5881,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="66" t="s">
         <v>235</v>
       </c>
@@ -5821,7 +5913,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
         <v>415</v>
       </c>
@@ -5853,7 +5945,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E27" s="64" t="s">
         <v>475</v>
       </c>
@@ -5877,15 +5969,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A42CFE-70EB-41D4-9DC8-D7EB8A38E926}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>91</v>
       </c>
@@ -5917,10 +6009,10 @@
         <v>94</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="70">
         <v>30004</v>
       </c>
@@ -5930,17 +6022,17 @@
       <c r="C2" s="71">
         <v>3</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E2" s="77">
+      <c r="D2" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="76">
         <v>120</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H2" s="70">
         <v>0</v>
@@ -5955,27 +6047,27 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="70">
         <v>30009</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>116</v>
+        <v>567</v>
       </c>
       <c r="C3" s="71">
         <v>3</v>
       </c>
-      <c r="D3" s="79" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" s="77">
+      <c r="D3" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" s="76">
         <v>30</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="H3" s="70">
         <v>0</v>
@@ -5990,7 +6082,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="70">
         <v>30010</v>
       </c>
@@ -6000,17 +6092,17 @@
       <c r="C4" s="71">
         <v>1</v>
       </c>
-      <c r="D4" s="79" t="s">
-        <v>527</v>
-      </c>
-      <c r="E4" s="77">
+      <c r="D4" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="76">
         <v>30</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="H4" s="70">
         <v>0</v>
@@ -6025,7 +6117,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="70">
         <v>30032</v>
       </c>
@@ -6035,17 +6127,17 @@
       <c r="C5" s="71">
         <v>3</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="77">
+      <c r="D5" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="76">
         <v>30</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H5" s="70">
         <v>0</v>
@@ -6060,7 +6152,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="70">
         <v>30038</v>
       </c>
@@ -6070,17 +6162,17 @@
       <c r="C6" s="71">
         <v>5</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="E6" s="77">
+      <c r="D6" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="76">
         <v>223</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>459</v>
+        <v>614</v>
       </c>
       <c r="H6" s="70" t="s">
         <v>462</v>
@@ -6095,7 +6187,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="70">
         <v>30044</v>
       </c>
@@ -6105,17 +6197,17 @@
       <c r="C7" s="71">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="77">
+      <c r="D7" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="76">
         <v>30</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H7" s="70">
         <v>0</v>
@@ -6130,27 +6222,27 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="70">
         <v>30046</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>180</v>
+        <v>568</v>
       </c>
       <c r="C8" s="71">
         <v>3</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E8" s="77">
+      <c r="D8" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" s="76">
         <v>30</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G8" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H8" s="70">
         <v>0</v>
@@ -6165,7 +6257,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="70">
         <v>30062</v>
       </c>
@@ -6175,17 +6267,17 @@
       <c r="C9" s="71">
         <v>3</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E9" s="77">
+      <c r="D9" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="76">
         <v>30</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G9" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H9" s="70">
         <v>0</v>
@@ -6200,7 +6292,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="70">
         <v>30065</v>
       </c>
@@ -6210,17 +6302,17 @@
       <c r="C10" s="71">
         <v>6</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E10" s="77">
+      <c r="D10" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="76">
         <v>120</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H10" s="70">
         <v>0</v>
@@ -6235,7 +6327,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="70">
         <v>30069</v>
       </c>
@@ -6245,17 +6337,17 @@
       <c r="C11" s="71">
         <v>1</v>
       </c>
-      <c r="D11" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E11" s="77">
+      <c r="D11" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E11" s="76">
         <v>30</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H11" s="70">
         <v>0</v>
@@ -6270,7 +6362,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="70">
         <v>30071</v>
       </c>
@@ -6280,17 +6372,17 @@
       <c r="C12" s="71">
         <v>3</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="77">
+      <c r="D12" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="76">
         <v>30</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G12" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H12" s="70">
         <v>0</v>
@@ -6305,27 +6397,27 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="70">
         <v>30080</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>236</v>
+        <v>569</v>
       </c>
       <c r="C13" s="71">
         <v>2</v>
       </c>
-      <c r="D13" s="79" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" s="77">
+      <c r="D13" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" s="76">
         <v>103</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>458</v>
+        <v>615</v>
       </c>
       <c r="H13" s="70" t="s">
         <v>462</v>
@@ -6340,7 +6432,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="70">
         <v>30086</v>
       </c>
@@ -6350,17 +6442,17 @@
       <c r="C14" s="71">
         <v>9</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E14" s="77">
+      <c r="D14" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="76">
         <v>120</v>
       </c>
       <c r="F14" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H14" s="70">
         <v>0</v>
@@ -6375,7 +6467,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="70">
         <v>30087</v>
       </c>
@@ -6385,17 +6477,17 @@
       <c r="C15" s="71">
         <v>7</v>
       </c>
-      <c r="D15" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E15" s="77">
+      <c r="D15" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E15" s="76">
         <v>120</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H15" s="70">
         <v>0</v>
@@ -6410,7 +6502,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="70">
         <v>30092</v>
       </c>
@@ -6420,17 +6512,17 @@
       <c r="C16" s="71" t="s">
         <v>467</v>
       </c>
-      <c r="D16" s="79" t="s">
-        <v>531</v>
-      </c>
-      <c r="E16" s="77">
+      <c r="D16" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="76">
         <v>150</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H16" s="70" t="s">
         <v>462</v>
@@ -6445,7 +6537,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="70">
         <v>30104</v>
       </c>
@@ -6455,17 +6547,17 @@
       <c r="C17" s="71">
         <v>3</v>
       </c>
-      <c r="D17" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E17" s="77">
+      <c r="D17" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" s="76">
         <v>30</v>
       </c>
       <c r="F17" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G17" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H17" s="70">
         <v>0</v>
@@ -6480,7 +6572,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="70">
         <v>30124</v>
       </c>
@@ -6490,17 +6582,17 @@
       <c r="C18" s="71">
         <v>2</v>
       </c>
-      <c r="D18" s="79" t="s">
-        <v>532</v>
-      </c>
-      <c r="E18" s="77">
+      <c r="D18" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="E18" s="76">
         <v>120</v>
       </c>
       <c r="F18" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H18" s="70">
         <v>0</v>
@@ -6515,7 +6607,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="70">
         <v>30149</v>
       </c>
@@ -6525,17 +6617,17 @@
       <c r="C19" s="71">
         <v>3</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>533</v>
-      </c>
-      <c r="E19" s="77">
+      <c r="D19" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="E19" s="76">
         <v>30</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G19" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H19" s="70">
         <v>0</v>
@@ -6550,7 +6642,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="70">
         <v>30168</v>
       </c>
@@ -6560,17 +6652,17 @@
       <c r="C20" s="71">
         <v>3</v>
       </c>
-      <c r="D20" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E20" s="77">
+      <c r="D20" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" s="76">
         <v>30</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G20" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H20" s="70">
         <v>0</v>
@@ -6585,7 +6677,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="70">
         <v>30188</v>
       </c>
@@ -6595,16 +6687,18 @@
       <c r="C21" s="71">
         <v>3</v>
       </c>
-      <c r="D21" s="79" t="s">
-        <v>527</v>
-      </c>
-      <c r="E21" s="77">
+      <c r="D21" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="E21" s="76">
         <v>30</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G21" s="70"/>
+        <v>581</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>616</v>
+      </c>
       <c r="H21" s="70">
         <v>0</v>
       </c>
@@ -6618,7 +6712,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="70">
         <v>30193</v>
       </c>
@@ -6628,17 +6722,17 @@
       <c r="C22" s="71">
         <v>3</v>
       </c>
-      <c r="D22" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E22" s="77">
+      <c r="D22" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="76">
         <v>30</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G22" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H22" s="70">
         <v>0</v>
@@ -6653,7 +6747,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="70">
         <v>30200</v>
       </c>
@@ -6663,17 +6757,17 @@
       <c r="C23" s="71">
         <v>3</v>
       </c>
-      <c r="D23" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E23" s="77">
+      <c r="D23" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="76">
         <v>30</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="G23" s="70">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>613</v>
       </c>
       <c r="H23" s="70">
         <v>0</v>
@@ -6688,7 +6782,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="70">
         <v>30201</v>
       </c>
@@ -6698,17 +6792,17 @@
       <c r="C24" s="71">
         <v>1</v>
       </c>
-      <c r="D24" s="79" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="77">
+      <c r="D24" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="E24" s="76">
         <v>103</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>458</v>
+        <v>615</v>
       </c>
       <c r="H24" s="70" t="s">
         <v>462</v>
@@ -6723,8 +6817,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="89">
         <v>30026</v>
       </c>
       <c r="B25" s="71" t="s">
@@ -6733,17 +6827,17 @@
       <c r="C25" s="71">
         <v>4</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E25" s="77">
+      <c r="D25" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E25" s="76">
         <v>30</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H25" s="70">
         <v>0</v>
@@ -6758,1648 +6852,1858 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="66">
         <v>30010</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>1</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="E26" s="78">
+      <c r="D26" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="E26" s="77">
         <v>30</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="H26" s="66">
         <v>0</v>
       </c>
-      <c r="I26" s="74">
-        <v>0</v>
-      </c>
-      <c r="J26" s="74">
+      <c r="I26" s="73">
+        <v>0</v>
+      </c>
+      <c r="J26" s="73">
         <v>0</v>
       </c>
       <c r="K26" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="66">
         <v>30149</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="75">
         <v>3</v>
       </c>
-      <c r="D27" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="E27" s="78">
+      <c r="D27" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="E27" s="77">
         <v>30</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G27" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H27" s="66">
         <v>0</v>
       </c>
-      <c r="I27" s="74">
-        <v>0</v>
-      </c>
-      <c r="J27" s="74">
+      <c r="I27" s="73">
+        <v>0</v>
+      </c>
+      <c r="J27" s="73">
         <v>0</v>
       </c>
       <c r="K27" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="66">
         <v>30032</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <v>3</v>
       </c>
-      <c r="D28" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E28" s="78">
+      <c r="D28" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E28" s="77">
         <v>30</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H28" s="66">
         <v>0</v>
       </c>
-      <c r="I28" s="74">
-        <v>0</v>
-      </c>
-      <c r="J28" s="74">
+      <c r="I28" s="73">
+        <v>0</v>
+      </c>
+      <c r="J28" s="73">
         <v>0</v>
       </c>
       <c r="K28" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="66">
         <v>30044</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="75">
         <v>3</v>
       </c>
-      <c r="D29" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E29" s="78">
+      <c r="D29" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E29" s="77">
         <v>30</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G29" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H29" s="66">
         <v>0</v>
       </c>
-      <c r="I29" s="74">
-        <v>0</v>
-      </c>
-      <c r="J29" s="74">
+      <c r="I29" s="73">
+        <v>0</v>
+      </c>
+      <c r="J29" s="73">
         <v>0</v>
       </c>
       <c r="K29" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="66">
         <v>30046</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="76">
+        <v>568</v>
+      </c>
+      <c r="C30" s="75">
         <v>3</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E30" s="78">
+      <c r="D30" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E30" s="77">
         <v>30</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G30" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H30" s="66">
         <v>0</v>
       </c>
-      <c r="I30" s="74">
-        <v>0</v>
-      </c>
-      <c r="J30" s="74">
+      <c r="I30" s="73">
+        <v>0</v>
+      </c>
+      <c r="J30" s="73">
         <v>0</v>
       </c>
       <c r="K30" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="66">
         <v>30062</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="75">
         <v>3</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E31" s="78">
+      <c r="D31" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E31" s="77">
         <v>30</v>
       </c>
       <c r="F31" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G31" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H31" s="66">
         <v>0</v>
       </c>
-      <c r="I31" s="74">
-        <v>0</v>
-      </c>
-      <c r="J31" s="74">
+      <c r="I31" s="73">
+        <v>0</v>
+      </c>
+      <c r="J31" s="73">
         <v>0</v>
       </c>
       <c r="K31" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="66">
         <v>30071</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="75">
         <v>3</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" s="78">
+      <c r="D32" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="77">
         <v>30</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G32" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H32" s="66">
         <v>0</v>
       </c>
-      <c r="I32" s="74">
-        <v>0</v>
-      </c>
-      <c r="J32" s="74">
+      <c r="I32" s="73">
+        <v>0</v>
+      </c>
+      <c r="J32" s="73">
         <v>0</v>
       </c>
       <c r="K32" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="66">
         <v>30104</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="75">
         <v>3</v>
       </c>
-      <c r="D33" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E33" s="78">
+      <c r="D33" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" s="77">
         <v>30</v>
       </c>
       <c r="F33" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G33" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H33" s="66">
         <v>0</v>
       </c>
-      <c r="I33" s="74">
-        <v>0</v>
-      </c>
-      <c r="J33" s="74">
+      <c r="I33" s="73">
+        <v>0</v>
+      </c>
+      <c r="J33" s="73">
         <v>0</v>
       </c>
       <c r="K33" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="66">
         <v>30168</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="75">
         <v>3</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E34" s="78">
+      <c r="D34" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E34" s="77">
         <v>30</v>
       </c>
       <c r="F34" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G34" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H34" s="66">
         <v>0</v>
       </c>
-      <c r="I34" s="74">
-        <v>0</v>
-      </c>
-      <c r="J34" s="74">
+      <c r="I34" s="73">
+        <v>0</v>
+      </c>
+      <c r="J34" s="73">
         <v>0</v>
       </c>
       <c r="K34" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="66">
         <v>30193</v>
       </c>
       <c r="B35" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="75">
         <v>3</v>
       </c>
-      <c r="D35" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E35" s="78">
+      <c r="D35" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E35" s="77">
         <v>30</v>
       </c>
       <c r="F35" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G35" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H35" s="66">
         <v>0</v>
       </c>
-      <c r="I35" s="74">
-        <v>0</v>
-      </c>
-      <c r="J35" s="74">
+      <c r="I35" s="73">
+        <v>0</v>
+      </c>
+      <c r="J35" s="73">
         <v>0</v>
       </c>
       <c r="K35" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="66">
         <v>30200</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="75">
         <v>3</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="E36" s="78">
+      <c r="D36" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" s="77">
         <v>30</v>
       </c>
       <c r="F36" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G36" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H36" s="66">
         <v>0</v>
       </c>
-      <c r="I36" s="74">
-        <v>0</v>
-      </c>
-      <c r="J36" s="74">
+      <c r="I36" s="73">
+        <v>0</v>
+      </c>
+      <c r="J36" s="73">
         <v>0</v>
       </c>
       <c r="K36" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="66">
         <v>30009</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="76">
+        <v>567</v>
+      </c>
+      <c r="C37" s="75">
         <v>3</v>
       </c>
-      <c r="D37" s="80" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="78">
+      <c r="D37" s="79" t="s">
+        <v>519</v>
+      </c>
+      <c r="E37" s="77">
         <v>30</v>
       </c>
       <c r="F37" s="66" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="G37" s="66" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="H37" s="66">
         <v>0</v>
       </c>
-      <c r="I37" s="74">
-        <v>0</v>
-      </c>
-      <c r="J37" s="74">
+      <c r="I37" s="73">
+        <v>0</v>
+      </c>
+      <c r="J37" s="73">
         <v>0</v>
       </c>
       <c r="K37" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="66">
         <v>30188</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="75">
         <v>3</v>
       </c>
-      <c r="D38" s="80" t="s">
-        <v>527</v>
-      </c>
-      <c r="E38" s="78">
+      <c r="D38" s="79" t="s">
+        <v>519</v>
+      </c>
+      <c r="E38" s="77">
         <v>30</v>
       </c>
       <c r="F38" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="G38" s="66">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="G38" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
       </c>
-      <c r="I38" s="74">
-        <v>0</v>
-      </c>
-      <c r="J38" s="74">
+      <c r="I38" s="73">
+        <v>0</v>
+      </c>
+      <c r="J38" s="73">
         <v>0</v>
       </c>
       <c r="K38" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="66">
         <v>30124</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="75">
         <v>2</v>
       </c>
-      <c r="D39" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="E39" s="78">
+      <c r="D39" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="E39" s="77">
         <v>120</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G39" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H39" s="66">
         <v>0</v>
       </c>
-      <c r="I39" s="74">
-        <v>0</v>
-      </c>
-      <c r="J39" s="74">
+      <c r="I39" s="73">
+        <v>0</v>
+      </c>
+      <c r="J39" s="73">
         <v>0</v>
       </c>
       <c r="K39" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="66">
         <v>30004</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="75">
         <v>3</v>
       </c>
-      <c r="D40" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E40" s="78">
+      <c r="D40" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E40" s="77">
         <v>120</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G40" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H40" s="66">
         <v>0</v>
       </c>
-      <c r="I40" s="74">
-        <v>0</v>
-      </c>
-      <c r="J40" s="74">
+      <c r="I40" s="73">
+        <v>0</v>
+      </c>
+      <c r="J40" s="73">
         <v>0</v>
       </c>
       <c r="K40" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="66">
         <v>30026</v>
       </c>
       <c r="B41" s="66" t="s">
         <v>515</v>
       </c>
-      <c r="C41" s="76">
+      <c r="C41" s="75">
         <v>4</v>
       </c>
-      <c r="D41" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E41" s="78">
+      <c r="D41" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E41" s="77">
         <v>0</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G41" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H41" s="66">
         <v>0</v>
       </c>
-      <c r="I41" s="74">
-        <v>0</v>
-      </c>
-      <c r="J41" s="74">
+      <c r="I41" s="73">
+        <v>0</v>
+      </c>
+      <c r="J41" s="73">
         <v>0</v>
       </c>
       <c r="K41" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="66">
         <v>30065</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="75">
         <v>6</v>
       </c>
-      <c r="D42" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E42" s="78">
+      <c r="D42" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E42" s="77">
         <v>120</v>
       </c>
       <c r="F42" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G42" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H42" s="66">
         <v>0</v>
       </c>
-      <c r="I42" s="74">
-        <v>0</v>
-      </c>
-      <c r="J42" s="74">
+      <c r="I42" s="73">
+        <v>0</v>
+      </c>
+      <c r="J42" s="73">
         <v>0</v>
       </c>
       <c r="K42" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="66">
         <v>30069</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="76">
+      <c r="C43" s="75">
         <v>1</v>
       </c>
-      <c r="D43" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E43" s="78">
+      <c r="D43" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E43" s="77">
         <v>0</v>
       </c>
       <c r="F43" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H43" s="66">
         <v>0</v>
       </c>
-      <c r="I43" s="74">
-        <v>0</v>
-      </c>
-      <c r="J43" s="74">
+      <c r="I43" s="73">
+        <v>0</v>
+      </c>
+      <c r="J43" s="73">
         <v>0</v>
       </c>
       <c r="K43" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="66">
         <v>30086</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="75">
         <v>9</v>
       </c>
-      <c r="D44" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E44" s="78">
+      <c r="D44" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" s="77">
         <v>120</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H44" s="66">
         <v>0</v>
       </c>
-      <c r="I44" s="74">
-        <v>0</v>
-      </c>
-      <c r="J44" s="74">
+      <c r="I44" s="73">
+        <v>0</v>
+      </c>
+      <c r="J44" s="73">
         <v>0</v>
       </c>
       <c r="K44" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="66">
         <v>30087</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="75">
         <v>7</v>
       </c>
-      <c r="D45" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="E45" s="78">
+      <c r="D45" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="E45" s="77">
         <v>120</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H45" s="66">
         <v>0</v>
       </c>
-      <c r="I45" s="74">
-        <v>0</v>
-      </c>
-      <c r="J45" s="74">
+      <c r="I45" s="73">
+        <v>0</v>
+      </c>
+      <c r="J45" s="73">
         <v>0</v>
       </c>
       <c r="K45" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="66">
         <v>30038</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="75">
         <v>5</v>
       </c>
-      <c r="D46" s="80" t="s">
-        <v>529</v>
-      </c>
-      <c r="E46" s="78">
+      <c r="D46" s="79" t="s">
+        <v>521</v>
+      </c>
+      <c r="E46" s="77">
         <v>223</v>
       </c>
       <c r="F46" s="66" t="s">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>459</v>
+        <v>614</v>
       </c>
       <c r="H46" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I46" s="74">
-        <v>0</v>
-      </c>
-      <c r="J46" s="74">
+      <c r="I46" s="73">
+        <v>0</v>
+      </c>
+      <c r="J46" s="73">
         <v>0</v>
       </c>
       <c r="K46" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="66">
         <v>30092</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="D47" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="E47" s="78">
+      <c r="D47" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="E47" s="77">
         <v>150</v>
       </c>
       <c r="F47" s="66" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="G47" s="66" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="H47" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I47" s="74">
-        <v>0</v>
-      </c>
-      <c r="J47" s="74">
+      <c r="I47" s="73">
+        <v>0</v>
+      </c>
+      <c r="J47" s="73">
         <v>0</v>
       </c>
       <c r="K47" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="66">
         <v>30080</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="76">
+        <v>569</v>
+      </c>
+      <c r="C48" s="75">
         <v>2</v>
       </c>
-      <c r="D48" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="E48" s="78">
+      <c r="D48" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="E48" s="77">
         <v>103</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
       <c r="G48" s="66" t="s">
-        <v>458</v>
+        <v>615</v>
       </c>
       <c r="H48" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I48" s="74">
-        <v>0</v>
-      </c>
-      <c r="J48" s="74">
+      <c r="I48" s="73">
+        <v>0</v>
+      </c>
+      <c r="J48" s="73">
         <v>0</v>
       </c>
       <c r="K48" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="66">
         <v>30201</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="75">
         <v>1</v>
       </c>
-      <c r="D49" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" s="78">
+      <c r="D49" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" s="77">
         <v>103</v>
       </c>
       <c r="F49" s="66" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
       <c r="G49" s="66" t="s">
-        <v>458</v>
+        <v>615</v>
       </c>
       <c r="H49" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I49" s="74">
-        <v>0</v>
-      </c>
-      <c r="J49" s="74">
+      <c r="I49" s="73">
+        <v>0</v>
+      </c>
+      <c r="J49" s="73">
         <v>0</v>
       </c>
       <c r="K49" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="66">
         <v>30004</v>
       </c>
-      <c r="B50" s="83" t="s">
-        <v>545</v>
-      </c>
-      <c r="C50" s="76">
+      <c r="B50" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="C50" s="75">
         <v>1</v>
       </c>
-      <c r="D50" s="80" t="s">
-        <v>534</v>
-      </c>
-      <c r="E50" s="78">
+      <c r="D50" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="E50" s="77">
         <v>14</v>
       </c>
       <c r="F50" s="66" t="s">
-        <v>517</v>
-      </c>
-      <c r="G50" s="75" t="s">
-        <v>518</v>
-      </c>
-      <c r="H50" s="74">
-        <v>0</v>
-      </c>
-      <c r="I50" s="74">
-        <v>0</v>
-      </c>
-      <c r="J50" s="74">
+        <v>585</v>
+      </c>
+      <c r="G50" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="H50" s="73">
+        <v>0</v>
+      </c>
+      <c r="I50" s="73">
+        <v>0</v>
+      </c>
+      <c r="J50" s="73">
         <v>0</v>
       </c>
       <c r="K50" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="66">
         <v>30160</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="75">
         <v>1</v>
       </c>
-      <c r="D51" s="80" t="s">
-        <v>534</v>
-      </c>
-      <c r="E51" s="78">
+      <c r="D51" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="E51" s="77">
         <v>16</v>
       </c>
       <c r="F51" s="66" t="s">
-        <v>519</v>
-      </c>
-      <c r="G51" s="75" t="s">
-        <v>520</v>
-      </c>
-      <c r="H51" s="74">
-        <v>0</v>
-      </c>
-      <c r="I51" s="74">
-        <v>0</v>
-      </c>
-      <c r="J51" s="74">
+        <v>586</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>618</v>
+      </c>
+      <c r="H51" s="73">
+        <v>0</v>
+      </c>
+      <c r="I51" s="73">
+        <v>0</v>
+      </c>
+      <c r="J51" s="73">
         <v>0</v>
       </c>
       <c r="K51" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="66">
         <v>30203</v>
       </c>
-      <c r="B52" s="84" t="s">
-        <v>546</v>
-      </c>
-      <c r="C52" s="76">
+      <c r="B52" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="C52" s="75">
         <v>1</v>
       </c>
-      <c r="D52" s="80" t="s">
-        <v>534</v>
-      </c>
-      <c r="E52" s="78">
+      <c r="D52" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="E52" s="77">
         <v>30</v>
       </c>
       <c r="F52" s="66" t="s">
-        <v>521</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>522</v>
-      </c>
-      <c r="H52" s="74">
-        <v>0</v>
-      </c>
-      <c r="I52" s="74">
-        <v>0</v>
-      </c>
-      <c r="J52" s="74">
+        <v>587</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>619</v>
+      </c>
+      <c r="H52" s="73">
+        <v>0</v>
+      </c>
+      <c r="I52" s="73">
+        <v>0</v>
+      </c>
+      <c r="J52" s="73">
         <v>0</v>
       </c>
       <c r="K52" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="66">
         <v>30210</v>
       </c>
-      <c r="B53" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="C53" s="76">
+      <c r="B53" s="83" t="s">
+        <v>529</v>
+      </c>
+      <c r="C53" s="75">
         <v>1</v>
       </c>
-      <c r="D53" s="80" t="s">
-        <v>534</v>
-      </c>
-      <c r="E53" s="78">
+      <c r="D53" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="E53" s="77">
         <v>22</v>
       </c>
       <c r="F53" s="66" t="s">
-        <v>523</v>
-      </c>
-      <c r="G53" s="75" t="s">
-        <v>524</v>
-      </c>
-      <c r="H53" s="74">
-        <v>0</v>
-      </c>
-      <c r="I53" s="74">
-        <v>0</v>
-      </c>
-      <c r="J53" s="74">
+        <v>588</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>620</v>
+      </c>
+      <c r="H53" s="73">
+        <v>0</v>
+      </c>
+      <c r="I53" s="73">
+        <v>0</v>
+      </c>
+      <c r="J53" s="73">
         <v>0</v>
       </c>
       <c r="K53" s="66">
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="80">
         <v>30087</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="80">
+        <v>1</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E54" s="80">
+        <v>15</v>
+      </c>
+      <c r="F54" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="G54" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="H54" s="80">
+        <v>0</v>
+      </c>
+      <c r="I54" s="80">
+        <v>0</v>
+      </c>
+      <c r="J54" s="80">
+        <v>0</v>
+      </c>
+      <c r="K54" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="80">
+        <v>30087</v>
+      </c>
+      <c r="B55" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="C55" s="80">
+        <v>2</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E55" s="80">
+        <v>32</v>
+      </c>
+      <c r="F55" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="G55" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="H55" s="80">
+        <v>0</v>
+      </c>
+      <c r="I55" s="80">
+        <v>0</v>
+      </c>
+      <c r="J55" s="80">
+        <v>0</v>
+      </c>
+      <c r="K55" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="80">
+        <v>30087</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="C56" s="80">
+        <v>3</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E56" s="80">
+        <v>27</v>
+      </c>
+      <c r="F56" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="G56" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="H56" s="80">
+        <v>0</v>
+      </c>
+      <c r="I56" s="80">
+        <v>0</v>
+      </c>
+      <c r="J56" s="80">
+        <v>0</v>
+      </c>
+      <c r="K56" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="80">
+        <v>30087</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" s="80">
+        <v>4</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E57" s="80">
+        <v>8</v>
+      </c>
+      <c r="F57" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="G57" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="H57" s="80">
+        <v>0</v>
+      </c>
+      <c r="I57" s="80">
+        <v>0</v>
+      </c>
+      <c r="J57" s="80">
+        <v>0</v>
+      </c>
+      <c r="K57" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="81">
+        <v>30193</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="80">
+        <v>5</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E58" s="80">
+        <v>10</v>
+      </c>
+      <c r="F58" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="G58" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="H58" s="80">
+        <v>0</v>
+      </c>
+      <c r="I58" s="80">
+        <v>0</v>
+      </c>
+      <c r="J58" s="80">
+        <v>0</v>
+      </c>
+      <c r="K58" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="80">
+        <v>30124</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="80">
+        <v>6</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="E59" s="80">
+        <v>6</v>
+      </c>
+      <c r="F59" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="G59" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="H59" s="80">
+        <v>0</v>
+      </c>
+      <c r="I59" s="80">
+        <v>0</v>
+      </c>
+      <c r="J59" s="80">
+        <v>0</v>
+      </c>
+      <c r="K59" s="80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="81">
+        <v>30141</v>
+      </c>
+      <c r="B60" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="81">
+        <v>7</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E60" s="81">
+        <v>47</v>
+      </c>
+      <c r="F60" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="G60" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="H60" s="81">
+        <v>0</v>
+      </c>
+      <c r="I60" s="81">
+        <v>0</v>
+      </c>
+      <c r="J60" s="81">
+        <v>0</v>
+      </c>
+      <c r="K60" s="81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="81">
+        <v>30010</v>
+      </c>
+      <c r="B61" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="81">
+        <v>1</v>
+      </c>
+      <c r="D61" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61" s="81">
+        <v>37</v>
+      </c>
+      <c r="F61" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="G61" s="81" t="s">
+        <v>624</v>
+      </c>
+      <c r="H61" s="81">
+        <v>0</v>
+      </c>
+      <c r="I61" s="81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J61" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K61" s="81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="81">
+        <v>30095</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" s="81">
+        <v>1</v>
+      </c>
+      <c r="D62" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E62" s="81">
+        <v>45</v>
+      </c>
+      <c r="F62" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="G62" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="H62" s="81">
+        <v>0</v>
+      </c>
+      <c r="I62" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" s="81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="80">
+        <v>30087</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="81">
+        <v>1</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E63" s="81">
+        <v>14</v>
+      </c>
+      <c r="F63" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="G63" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="H63" s="81">
+        <v>0</v>
+      </c>
+      <c r="I63" s="81" t="s">
+        <v>535</v>
+      </c>
+      <c r="J63" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="K63" s="81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="80">
+        <v>30087</v>
+      </c>
+      <c r="B64" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="81">
+        <v>1</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E64" s="81">
+        <v>23</v>
+      </c>
+      <c r="F64" s="81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G64" s="81" t="s">
+        <v>627</v>
+      </c>
+      <c r="H64" s="81">
+        <v>0</v>
+      </c>
+      <c r="I64" s="81" t="s">
+        <v>537</v>
+      </c>
+      <c r="J64" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="K64" s="81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="66">
+        <v>30087</v>
+      </c>
+      <c r="B65" s="85" t="s">
+        <v>574</v>
+      </c>
+      <c r="C65" s="66">
+        <v>1</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E65" s="86">
+        <v>50</v>
+      </c>
+      <c r="F65" s="87" t="s">
+        <v>599</v>
+      </c>
+      <c r="G65" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="H65" s="66">
+        <v>0</v>
+      </c>
+      <c r="I65" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="J65" s="88" t="s">
+        <v>540</v>
+      </c>
+      <c r="K65" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="66">
+        <v>30038</v>
+      </c>
+      <c r="B66" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E66" s="86">
+        <v>50</v>
+      </c>
+      <c r="F66" s="87" t="s">
+        <v>600</v>
+      </c>
+      <c r="G66" s="87" t="s">
+        <v>629</v>
+      </c>
+      <c r="H66" s="66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="88" t="s">
+        <v>541</v>
+      </c>
+      <c r="J66" s="88" t="s">
+        <v>542</v>
+      </c>
+      <c r="K66" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="66">
+        <v>30124</v>
+      </c>
+      <c r="B67" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="66">
+        <v>1</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E67" s="86">
+        <v>21</v>
+      </c>
+      <c r="F67" s="87" t="s">
+        <v>601</v>
+      </c>
+      <c r="G67" s="87" t="s">
+        <v>630</v>
+      </c>
+      <c r="H67" s="66">
+        <v>0</v>
+      </c>
+      <c r="I67" s="88" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="K67" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="66">
+        <v>30038</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="C68" s="66">
+        <v>1</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E68" s="66">
+        <v>60</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>631</v>
+      </c>
+      <c r="H68" s="66">
+        <v>0</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" s="66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K68" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="66">
+        <v>30004</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="66">
+        <v>1</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E69" s="66">
+        <v>10</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="H69" s="66">
+        <v>0</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" s="66" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="66">
+        <v>30087</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="C70" s="66">
+        <v>1</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E70" s="66">
+        <v>26</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="H70" s="66">
+        <v>0</v>
+      </c>
+      <c r="I70" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="C54" s="81">
+      <c r="J70" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="K70" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="66">
+        <v>30087</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="C71" s="66">
         <v>1</v>
       </c>
-      <c r="D54" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E54" s="81">
+      <c r="D71" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E71" s="66">
+        <v>51</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="H71" s="66">
+        <v>0</v>
+      </c>
+      <c r="I71" s="66" t="s">
+        <v>551</v>
+      </c>
+      <c r="J71" s="66" t="s">
+        <v>552</v>
+      </c>
+      <c r="K71" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="66">
+        <v>30095</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>578</v>
+      </c>
+      <c r="C72" s="66">
+        <v>1</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="E72" s="66">
+        <v>6</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>606</v>
+      </c>
+      <c r="G72" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="H72" s="66">
+        <v>0</v>
+      </c>
+      <c r="I72" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="J72" s="66" t="s">
+        <v>554</v>
+      </c>
+      <c r="K72" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="66">
+        <v>30038</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="66">
+        <v>1</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="E73" s="66">
+        <v>39</v>
+      </c>
+      <c r="F73" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="H73" s="66">
+        <v>0</v>
+      </c>
+      <c r="I73" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="J73" s="66" t="s">
+        <v>556</v>
+      </c>
+      <c r="K73" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="66">
+        <v>30065</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="66">
+        <v>1</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="E74" s="66">
+        <v>21</v>
+      </c>
+      <c r="F74" s="66" t="s">
+        <v>608</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="H74" s="66">
+        <v>0</v>
+      </c>
+      <c r="I74" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="J74" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="K74" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="66">
+        <v>30069</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="66">
+        <v>1</v>
+      </c>
+      <c r="D75" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="E75" s="66">
+        <v>55</v>
+      </c>
+      <c r="F75" s="66" t="s">
+        <v>609</v>
+      </c>
+      <c r="G75" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="H75" s="66">
+        <v>0</v>
+      </c>
+      <c r="I75" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="J75" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="K75" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="66">
+        <v>30189</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="66">
+        <v>1</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="E76" s="66">
         <v>15</v>
       </c>
-      <c r="F54" s="81" t="s">
-        <v>536</v>
-      </c>
-      <c r="G54" s="81" t="s">
-        <v>537</v>
-      </c>
-      <c r="H54" s="81">
-        <v>0</v>
-      </c>
-      <c r="I54" s="81">
-        <v>0</v>
-      </c>
-      <c r="J54" s="81">
-        <v>0</v>
-      </c>
-      <c r="K54" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="81">
-        <v>30087</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>549</v>
-      </c>
-      <c r="C55" s="81">
-        <v>2</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E55" s="81">
-        <v>32</v>
-      </c>
-      <c r="F55" s="81" t="s">
-        <v>536</v>
-      </c>
-      <c r="G55" s="81" t="s">
-        <v>537</v>
-      </c>
-      <c r="H55" s="81">
-        <v>0</v>
-      </c>
-      <c r="I55" s="81">
-        <v>0</v>
-      </c>
-      <c r="J55" s="81">
-        <v>0</v>
-      </c>
-      <c r="K55" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="81">
-        <v>30087</v>
-      </c>
-      <c r="B56" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="C56" s="81">
-        <v>3</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E56" s="81">
-        <v>27</v>
-      </c>
-      <c r="F56" s="81" t="s">
-        <v>538</v>
-      </c>
-      <c r="G56" s="81" t="s">
-        <v>540</v>
-      </c>
-      <c r="H56" s="81">
-        <v>0</v>
-      </c>
-      <c r="I56" s="81">
-        <v>0</v>
-      </c>
-      <c r="J56" s="81">
-        <v>0</v>
-      </c>
-      <c r="K56" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="81">
-        <v>30087</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>549</v>
-      </c>
-      <c r="C57" s="81">
-        <v>4</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E57" s="81">
-        <v>8</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>539</v>
-      </c>
-      <c r="G57" s="81" t="s">
-        <v>540</v>
-      </c>
-      <c r="H57" s="81">
-        <v>0</v>
-      </c>
-      <c r="I57" s="81">
-        <v>0</v>
-      </c>
-      <c r="J57" s="81">
-        <v>0</v>
-      </c>
-      <c r="K57" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82">
-        <v>30193</v>
-      </c>
-      <c r="B58" s="85" t="s">
-        <v>551</v>
-      </c>
-      <c r="C58" s="81">
-        <v>5</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E58" s="81">
-        <v>10</v>
-      </c>
-      <c r="F58" s="81" t="s">
-        <v>541</v>
-      </c>
-      <c r="G58" s="81" t="s">
-        <v>542</v>
-      </c>
-      <c r="H58" s="81">
-        <v>0</v>
-      </c>
-      <c r="I58" s="81">
-        <v>0</v>
-      </c>
-      <c r="J58" s="81">
-        <v>0</v>
-      </c>
-      <c r="K58" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="81">
-        <v>30124</v>
-      </c>
-      <c r="B59" s="85" t="s">
-        <v>548</v>
-      </c>
-      <c r="C59" s="81">
-        <v>6</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="E59" s="81">
-        <v>6</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="G59" s="81" t="s">
-        <v>542</v>
-      </c>
-      <c r="H59" s="81">
-        <v>0</v>
-      </c>
-      <c r="I59" s="81">
-        <v>0</v>
-      </c>
-      <c r="J59" s="81">
-        <v>0</v>
-      </c>
-      <c r="K59" s="81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="82">
-        <v>30141</v>
-      </c>
-      <c r="B60" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="82">
-        <v>7</v>
-      </c>
-      <c r="D60" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E60" s="82">
-        <v>47</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="G60" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="H60" s="82">
-        <v>0</v>
-      </c>
-      <c r="I60" s="82">
-        <v>0</v>
-      </c>
-      <c r="J60" s="82">
-        <v>0</v>
-      </c>
-      <c r="K60" s="82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="82">
-        <v>30010</v>
-      </c>
-      <c r="B61" s="82" t="s">
-        <v>568</v>
-      </c>
-      <c r="C61" s="82">
+      <c r="F76" s="66" t="s">
+        <v>610</v>
+      </c>
+      <c r="G76" s="66" t="s">
+        <v>639</v>
+      </c>
+      <c r="H76" s="66">
+        <v>0</v>
+      </c>
+      <c r="I76" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="J76" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="K76" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="66">
+        <v>30039</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="66">
         <v>1</v>
       </c>
-      <c r="D61" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E61" s="82">
-        <v>37</v>
-      </c>
-      <c r="F61" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="G61" s="82" t="s">
-        <v>561</v>
-      </c>
-      <c r="H61" s="82">
-        <v>0</v>
-      </c>
-      <c r="I61" s="82" t="s">
-        <v>552</v>
-      </c>
-      <c r="J61" s="82" t="s">
-        <v>553</v>
-      </c>
-      <c r="K61" s="82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="82">
-        <v>30095</v>
-      </c>
-      <c r="B62" s="82" t="s">
-        <v>569</v>
-      </c>
-      <c r="C62" s="82">
+      <c r="D77" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="E77" s="66">
+        <v>13</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" s="66" t="s">
+        <v>640</v>
+      </c>
+      <c r="H77" s="66">
+        <v>0</v>
+      </c>
+      <c r="I77" s="66" t="s">
+        <v>563</v>
+      </c>
+      <c r="J77" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" s="66">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="66">
+        <v>30044</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="66">
         <v>1</v>
       </c>
-      <c r="D62" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="82">
-        <v>45</v>
-      </c>
-      <c r="F62" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G62" s="82" t="s">
-        <v>563</v>
-      </c>
-      <c r="H62" s="82">
-        <v>0</v>
-      </c>
-      <c r="I62" s="82" t="s">
-        <v>554</v>
-      </c>
-      <c r="J62" s="82" t="s">
-        <v>555</v>
-      </c>
-      <c r="K62" s="82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="81">
-        <v>30087</v>
-      </c>
-      <c r="B63" s="82" t="s">
-        <v>570</v>
-      </c>
-      <c r="C63" s="82">
-        <v>1</v>
-      </c>
-      <c r="D63" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E63" s="82">
-        <v>14</v>
-      </c>
-      <c r="F63" s="82" t="s">
-        <v>564</v>
-      </c>
-      <c r="G63" s="82" t="s">
+      <c r="D78" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="E78" s="66">
+        <v>40</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="H78" s="66">
+        <v>0</v>
+      </c>
+      <c r="I78" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="H63" s="82">
-        <v>0</v>
-      </c>
-      <c r="I63" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="J63" s="82" t="s">
-        <v>557</v>
-      </c>
-      <c r="K63" s="82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
-        <v>30087</v>
-      </c>
-      <c r="B64" s="82" t="s">
-        <v>570</v>
-      </c>
-      <c r="C64" s="82">
-        <v>1</v>
-      </c>
-      <c r="D64" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E64" s="82">
-        <v>23</v>
-      </c>
-      <c r="F64" s="82" t="s">
+      <c r="J78" s="66" t="s">
         <v>566</v>
       </c>
-      <c r="G64" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="H64" s="82">
-        <v>0</v>
-      </c>
-      <c r="I64" s="82" t="s">
-        <v>558</v>
-      </c>
-      <c r="J64" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="K64" s="82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
-        <v>30087</v>
-      </c>
-      <c r="B65" s="86" t="s">
-        <v>571</v>
-      </c>
-      <c r="C65" s="90">
-        <v>1</v>
-      </c>
-      <c r="D65" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E65" s="87">
-        <v>50</v>
-      </c>
-      <c r="F65" s="88" t="s">
-        <v>572</v>
-      </c>
-      <c r="G65" s="88" t="s">
-        <v>573</v>
-      </c>
-      <c r="H65" s="90">
-        <v>0</v>
-      </c>
-      <c r="I65" s="89" t="s">
-        <v>574</v>
-      </c>
-      <c r="J65" s="89" t="s">
-        <v>575</v>
-      </c>
-      <c r="K65" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="90">
-        <v>30038</v>
-      </c>
-      <c r="B66" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="C66" s="90">
-        <v>1</v>
-      </c>
-      <c r="D66" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E66" s="87">
-        <v>50</v>
-      </c>
-      <c r="F66" s="88" t="s">
-        <v>577</v>
-      </c>
-      <c r="G66" s="88" t="s">
-        <v>578</v>
-      </c>
-      <c r="H66" s="90">
-        <v>0</v>
-      </c>
-      <c r="I66" s="89" t="s">
-        <v>579</v>
-      </c>
-      <c r="J66" s="89" t="s">
-        <v>580</v>
-      </c>
-      <c r="K66" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="90">
-        <v>30124</v>
-      </c>
-      <c r="B67" s="86" t="s">
-        <v>581</v>
-      </c>
-      <c r="C67" s="90">
-        <v>1</v>
-      </c>
-      <c r="D67" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E67" s="87">
-        <v>21</v>
-      </c>
-      <c r="F67" s="88" t="s">
-        <v>582</v>
-      </c>
-      <c r="G67" s="88" t="s">
-        <v>583</v>
-      </c>
-      <c r="H67" s="90">
-        <v>0</v>
-      </c>
-      <c r="I67" s="89" t="s">
-        <v>584</v>
-      </c>
-      <c r="J67" s="89" t="s">
-        <v>585</v>
-      </c>
-      <c r="K67" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="90">
-        <v>30038</v>
-      </c>
-      <c r="B68" s="90" t="s">
-        <v>586</v>
-      </c>
-      <c r="C68" s="90">
-        <v>1</v>
-      </c>
-      <c r="D68" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E68" s="90">
-        <v>60</v>
-      </c>
-      <c r="F68" s="90" t="s">
-        <v>587</v>
-      </c>
-      <c r="G68" s="90" t="s">
-        <v>588</v>
-      </c>
-      <c r="H68" s="90">
-        <v>0</v>
-      </c>
-      <c r="I68" s="90" t="s">
-        <v>589</v>
-      </c>
-      <c r="J68" s="90" t="s">
-        <v>590</v>
-      </c>
-      <c r="K68" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="90">
-        <v>30004</v>
-      </c>
-      <c r="B69" s="90" t="s">
-        <v>591</v>
-      </c>
-      <c r="C69" s="90">
-        <v>1</v>
-      </c>
-      <c r="D69" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E69" s="90">
-        <v>10</v>
-      </c>
-      <c r="F69" s="90" t="s">
-        <v>592</v>
-      </c>
-      <c r="G69" s="90" t="s">
-        <v>593</v>
-      </c>
-      <c r="H69" s="90">
-        <v>0</v>
-      </c>
-      <c r="I69" s="90" t="s">
-        <v>594</v>
-      </c>
-      <c r="J69" s="90" t="s">
-        <v>595</v>
-      </c>
-      <c r="K69" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="90">
-        <v>30087</v>
-      </c>
-      <c r="B70" s="90" t="s">
-        <v>596</v>
-      </c>
-      <c r="C70" s="90">
-        <v>1</v>
-      </c>
-      <c r="D70" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E70" s="90">
-        <v>26</v>
-      </c>
-      <c r="F70" s="90" t="s">
-        <v>597</v>
-      </c>
-      <c r="G70" s="90" t="s">
-        <v>598</v>
-      </c>
-      <c r="H70" s="90">
-        <v>0</v>
-      </c>
-      <c r="I70" s="90" t="s">
-        <v>599</v>
-      </c>
-      <c r="J70" s="90" t="s">
-        <v>600</v>
-      </c>
-      <c r="K70" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="90">
-        <v>30087</v>
-      </c>
-      <c r="B71" s="90" t="s">
-        <v>601</v>
-      </c>
-      <c r="C71" s="90">
-        <v>1</v>
-      </c>
-      <c r="D71" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E71" s="90">
-        <v>51</v>
-      </c>
-      <c r="F71" s="90" t="s">
-        <v>602</v>
-      </c>
-      <c r="G71" s="90" t="s">
-        <v>603</v>
-      </c>
-      <c r="H71" s="90">
-        <v>0</v>
-      </c>
-      <c r="I71" s="90" t="s">
-        <v>604</v>
-      </c>
-      <c r="J71" s="90" t="s">
-        <v>605</v>
-      </c>
-      <c r="K71" s="90">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="90">
-        <v>30095</v>
-      </c>
-      <c r="B72" s="90" t="s">
-        <v>606</v>
-      </c>
-      <c r="C72" s="90">
-        <v>1</v>
-      </c>
-      <c r="D72" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E72" s="90">
-        <v>6</v>
-      </c>
-      <c r="F72" s="90" t="s">
-        <v>607</v>
-      </c>
-      <c r="G72" s="90" t="s">
-        <v>608</v>
-      </c>
-      <c r="H72" s="90" t="s">
-        <v>609</v>
-      </c>
-      <c r="I72" s="90" t="s">
-        <v>610</v>
-      </c>
-      <c r="J72" s="90">
-        <v>0</v>
-      </c>
-      <c r="K72" s="90">
+      <c r="K78" s="66">
         <v>2024</v>
       </c>
     </row>
@@ -8460,9 +8764,21 @@
     <hyperlink ref="J65" r:id="rId52" xr:uid="{EEF8F8AD-BF3C-4137-80AC-8BCF84D6EA6D}"/>
     <hyperlink ref="I67" r:id="rId53" xr:uid="{B9681B4B-D15D-4005-9E9E-E82E2CC93A4E}"/>
     <hyperlink ref="J67" r:id="rId54" xr:uid="{BBD3BF15-419A-47D9-9F1C-96D60F7BA40F}"/>
+    <hyperlink ref="I73" r:id="rId55" xr:uid="{3CB3D9BC-45D2-447D-AC38-CB769B99FB66}"/>
+    <hyperlink ref="J73" r:id="rId56" xr:uid="{E65A1C59-C702-493E-B18E-9BA335779EE4}"/>
+    <hyperlink ref="I74" r:id="rId57" xr:uid="{18C57535-5538-4E9B-9DCC-6186B4E9AFC7}"/>
+    <hyperlink ref="J74" r:id="rId58" xr:uid="{54CAE8B9-89D4-408E-AD1B-40BAB606BFC0}"/>
+    <hyperlink ref="I75" r:id="rId59" xr:uid="{F50CEDA6-59FE-4908-BFD5-B9C7B9639CB1}"/>
+    <hyperlink ref="J75" r:id="rId60" xr:uid="{DC09FDA8-5AC1-4273-985B-47CE5F066D1F}"/>
+    <hyperlink ref="I76" r:id="rId61" xr:uid="{9A246A0B-3833-417F-8877-7E2494F9402A}"/>
+    <hyperlink ref="J76" r:id="rId62" xr:uid="{644E7099-770C-4AEE-986D-BCBA4C492011}"/>
+    <hyperlink ref="I77" r:id="rId63" xr:uid="{9A23549B-7E4A-46C0-8283-D56D0680C9A3}"/>
+    <hyperlink ref="J77" r:id="rId64" xr:uid="{EEAE9694-C307-4816-A8DF-F0C5D84262C4}"/>
+    <hyperlink ref="I78" r:id="rId65" xr:uid="{81C01090-51CE-4E4E-89FF-39804CE6258F}"/>
+    <hyperlink ref="J78" r:id="rId66" xr:uid="{98756392-D98F-4D0C-A946-5ABD72079807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId55"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -8474,18 +8790,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="9" width="40.7109375" customWidth="1"/>
-    <col min="10" max="11" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="9" width="40.6640625" customWidth="1"/>
+    <col min="10" max="11" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
@@ -8520,7 +8836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="31" t="s">
         <v>442</v>
@@ -8547,7 +8863,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="31" t="s">
         <v>442</v>
@@ -8574,7 +8890,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="31" t="s">
         <v>442</v>
@@ -8601,7 +8917,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
         <v>442</v>
@@ -8628,7 +8944,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>105</v>
       </c>
@@ -8645,7 +8961,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -8662,7 +8978,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -8679,7 +8995,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -8696,7 +9012,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -8713,7 +9029,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -8730,7 +9046,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -8747,7 +9063,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -8764,7 +9080,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
@@ -8781,7 +9097,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -8798,7 +9114,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>119</v>
       </c>
@@ -8815,7 +9131,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
@@ -8832,7 +9148,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>123</v>
       </c>
@@ -8849,7 +9165,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
@@ -8866,7 +9182,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
@@ -8883,7 +9199,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
@@ -8900,7 +9216,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -8917,7 +9233,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
@@ -8934,7 +9250,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>135</v>
       </c>
@@ -8951,7 +9267,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
@@ -8968,7 +9284,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -8985,7 +9301,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -9002,7 +9318,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -9019,7 +9335,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -9036,7 +9352,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -9053,7 +9369,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
@@ -9070,7 +9386,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -9087,7 +9403,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>151</v>
       </c>
@@ -9104,7 +9420,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>153</v>
       </c>
@@ -9121,7 +9437,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -9138,7 +9454,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
@@ -9155,7 +9471,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -9172,7 +9488,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -9189,7 +9505,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>161</v>
       </c>
@@ -9206,7 +9522,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
@@ -9223,7 +9539,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -9240,7 +9556,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -9257,7 +9573,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
@@ -9274,7 +9590,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -9291,7 +9607,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -9308,7 +9624,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
@@ -9325,7 +9641,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -9342,7 +9658,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -9359,7 +9675,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -9376,7 +9692,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -9393,7 +9709,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
@@ -9410,7 +9726,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -9427,7 +9743,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>183</v>
       </c>
@@ -9444,7 +9760,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -9461,7 +9777,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>185</v>
       </c>
@@ -9478,7 +9794,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>187</v>
       </c>
@@ -9495,7 +9811,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>189</v>
       </c>
@@ -9512,7 +9828,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>191</v>
       </c>
@@ -9529,7 +9845,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>193</v>
       </c>
@@ -9546,7 +9862,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>195</v>
       </c>
@@ -9563,7 +9879,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -9580,7 +9896,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>197</v>
       </c>
@@ -9597,7 +9913,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>199</v>
       </c>
@@ -9614,7 +9930,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>201</v>
       </c>
@@ -9631,7 +9947,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -9648,7 +9964,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
@@ -9665,7 +9981,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -9682,7 +9998,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -9699,7 +10015,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>211</v>
       </c>
@@ -9716,7 +10032,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>213</v>
       </c>
@@ -9733,7 +10049,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -9750,7 +10066,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>217</v>
       </c>
@@ -9767,7 +10083,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>219</v>
       </c>
@@ -9784,7 +10100,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -9801,7 +10117,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>223</v>
       </c>
@@ -9818,7 +10134,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -9835,7 +10151,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -9852,7 +10168,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
@@ -9869,7 +10185,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>227</v>
       </c>
@@ -9886,7 +10202,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -9903,7 +10219,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -9920,7 +10236,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
@@ -9937,7 +10253,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>231</v>
       </c>
@@ -9954,7 +10270,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -9971,7 +10287,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>235</v>
       </c>
@@ -9988,7 +10304,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>237</v>
       </c>
@@ -10005,7 +10321,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>239</v>
       </c>
@@ -10022,7 +10338,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -10039,7 +10355,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>241</v>
       </c>
@@ -10056,7 +10372,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>243</v>
       </c>
@@ -10073,7 +10389,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>245</v>
       </c>
@@ -10090,7 +10406,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>247</v>
       </c>
@@ -10107,7 +10423,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>249</v>
       </c>
@@ -10124,7 +10440,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>251</v>
       </c>
@@ -10141,7 +10457,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>253</v>
       </c>
@@ -10158,7 +10474,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>255</v>
       </c>
@@ -10175,7 +10491,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>257</v>
       </c>
@@ -10192,7 +10508,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>259</v>
       </c>
@@ -10209,7 +10525,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>261</v>
       </c>
@@ -10226,7 +10542,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>263</v>
       </c>
@@ -10243,7 +10559,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>265</v>
       </c>
@@ -10260,7 +10576,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>267</v>
       </c>
@@ -10277,7 +10593,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>269</v>
       </c>
@@ -10294,7 +10610,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>271</v>
       </c>
@@ -10311,7 +10627,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -10328,7 +10644,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>273</v>
       </c>
@@ -10345,7 +10661,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -10362,7 +10678,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>275</v>
       </c>
@@ -10379,7 +10695,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>44</v>
       </c>
@@ -10396,7 +10712,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>277</v>
       </c>
@@ -10413,7 +10729,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>279</v>
       </c>
@@ -10430,7 +10746,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>281</v>
       </c>
@@ -10447,7 +10763,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>46</v>
       </c>
@@ -10464,7 +10780,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>283</v>
       </c>
@@ -10481,7 +10797,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>285</v>
       </c>
@@ -10498,7 +10814,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>287</v>
       </c>
@@ -10515,7 +10831,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -10532,7 +10848,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>289</v>
       </c>
@@ -10549,7 +10865,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>291</v>
       </c>
@@ -10566,7 +10882,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>293</v>
       </c>
@@ -10583,7 +10899,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>295</v>
       </c>
@@ -10600,7 +10916,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>297</v>
       </c>
@@ -10617,7 +10933,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>299</v>
       </c>
@@ -10634,7 +10950,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>301</v>
       </c>
@@ -10651,7 +10967,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>303</v>
       </c>
@@ -10668,7 +10984,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>50</v>
       </c>
@@ -10685,7 +11001,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>305</v>
       </c>
@@ -10702,7 +11018,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>307</v>
       </c>
@@ -10719,7 +11035,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -10736,7 +11052,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>52</v>
       </c>
@@ -10753,7 +11069,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>54</v>
       </c>
@@ -10770,7 +11086,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>309</v>
       </c>
@@ -10787,7 +11103,7 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -10804,7 +11120,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>311</v>
       </c>
@@ -10821,7 +11137,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
@@ -10838,7 +11154,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>313</v>
       </c>
@@ -10855,7 +11171,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>315</v>
       </c>
@@ -10872,7 +11188,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>317</v>
       </c>
@@ -10889,7 +11205,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>319</v>
       </c>
@@ -10906,7 +11222,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>321</v>
       </c>
@@ -10923,7 +11239,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>323</v>
       </c>
@@ -10940,7 +11256,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>325</v>
       </c>
@@ -10957,7 +11273,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>327</v>
       </c>
@@ -10974,7 +11290,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>329</v>
       </c>
@@ -10991,7 +11307,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>331</v>
       </c>
@@ -11008,7 +11324,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>58</v>
       </c>
@@ -11025,7 +11341,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>333</v>
       </c>
@@ -11042,7 +11358,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>60</v>
       </c>
@@ -11059,7 +11375,7 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>62</v>
       </c>
@@ -11076,7 +11392,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>335</v>
       </c>
@@ -11093,7 +11409,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>337</v>
       </c>
@@ -11110,7 +11426,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>339</v>
       </c>
@@ -11127,7 +11443,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>64</v>
       </c>
@@ -11144,7 +11460,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -11161,7 +11477,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>341</v>
       </c>
@@ -11178,7 +11494,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>66</v>
       </c>
@@ -11195,7 +11511,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>343</v>
       </c>
@@ -11212,7 +11528,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>345</v>
       </c>
@@ -11229,7 +11545,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>347</v>
       </c>
@@ -11246,7 +11562,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>349</v>
       </c>
@@ -11263,7 +11579,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>351</v>
       </c>
@@ -11280,7 +11596,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -11297,7 +11613,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>68</v>
       </c>
@@ -11314,7 +11630,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>353</v>
       </c>
@@ -11331,7 +11647,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -11348,7 +11664,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>355</v>
       </c>
@@ -11365,7 +11681,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>70</v>
       </c>
@@ -11382,7 +11698,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>357</v>
       </c>
@@ -11399,7 +11715,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>359</v>
       </c>
@@ -11416,7 +11732,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>361</v>
       </c>
@@ -11433,7 +11749,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>363</v>
       </c>
@@ -11450,7 +11766,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>72</v>
       </c>
@@ -11467,7 +11783,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>365</v>
       </c>
@@ -11484,7 +11800,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>74</v>
       </c>
@@ -11501,7 +11817,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>367</v>
       </c>
@@ -11518,7 +11834,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>369</v>
       </c>
@@ -11535,7 +11851,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>371</v>
       </c>
@@ -11552,7 +11868,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>373</v>
       </c>
@@ -11569,7 +11885,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>76</v>
       </c>
@@ -11586,7 +11902,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>20</v>
       </c>
@@ -11603,7 +11919,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>78</v>
       </c>
@@ -11620,7 +11936,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>375</v>
       </c>
@@ -11637,7 +11953,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>377</v>
       </c>
@@ -11654,7 +11970,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>379</v>
       </c>
@@ -11671,7 +11987,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>381</v>
       </c>
@@ -11688,7 +12004,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>383</v>
       </c>
@@ -11705,7 +12021,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>385</v>
       </c>
@@ -11722,7 +12038,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>387</v>
       </c>
@@ -11739,7 +12055,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>389</v>
       </c>
@@ -11756,7 +12072,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>391</v>
       </c>
@@ -11773,7 +12089,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>393</v>
       </c>
@@ -11790,7 +12106,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>395</v>
       </c>
@@ -11807,7 +12123,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>397</v>
       </c>
@@ -11824,7 +12140,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>80</v>
       </c>
@@ -11841,7 +12157,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>399</v>
       </c>
@@ -11858,7 +12174,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>401</v>
       </c>
@@ -11875,7 +12191,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>84</v>
       </c>
@@ -11892,7 +12208,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>403</v>
       </c>
@@ -11909,7 +12225,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>405</v>
       </c>
@@ -11926,7 +12242,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>407</v>
       </c>
@@ -11943,7 +12259,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>409</v>
       </c>
@@ -11960,7 +12276,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>411</v>
       </c>
@@ -11977,7 +12293,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>22</v>
       </c>
@@ -11994,7 +12310,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>413</v>
       </c>
@@ -12011,7 +12327,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>86</v>
       </c>
@@ -12028,7 +12344,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -12045,7 +12361,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>417</v>
       </c>
@@ -12062,7 +12378,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>419</v>
       </c>
@@ -12079,7 +12395,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>421</v>
       </c>
@@ -12096,7 +12412,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -12113,7 +12429,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>425</v>
       </c>
@@ -12130,7 +12446,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>24</v>
       </c>
@@ -12147,7 +12463,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>427</v>
       </c>
@@ -12164,7 +12480,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>88</v>
       </c>
@@ -12181,7 +12497,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>101</v>
       </c>
@@ -12198,7 +12514,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>26</v>
       </c>
@@ -12215,7 +12531,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -12232,148 +12548,148 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B218" s="22"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
     </row>
   </sheetData>
